--- a/icsd3-mappings/icsd3-mros-mapping.xlsx
+++ b/icsd3-mappings/icsd3-mros-mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -40,39 +40,6 @@
   </si>
   <si>
     <t>mros</t>
-  </si>
-  <si>
-    <t>((icdadultosa_symptoms OR  icdadultosa_history) AND (SUM(icsdadultosa_psg5events) &gt;= 5)) OR (SUM(icsdadultosa_psg15events) &gt;= 15)</t>
-  </si>
-  <si>
-    <t>A. The presence of one or more of the following:</t>
-  </si>
-  <si>
-    <t>1. The patient complains of sleepiness, nonrestorative sleep, fatigue, or insomnia symptoms.</t>
-  </si>
-  <si>
-    <t>2. The patient wakes with breath holding, gasping, or choking.</t>
-  </si>
-  <si>
-    <t>3. The bed partner or other observer reports habitual snoring, breathing interruptions, or both during the patient’s sleep.</t>
-  </si>
-  <si>
-    <t>4. The patient has been diagnosed with hypertension, a mood disorder, cognitive dysfunction, coronary artery disease, stroke, congestive heart failure, atrial fibrillation, or type 2 diabetes mellitus.</t>
-  </si>
-  <si>
-    <t>B. Polysomnography (PSG) or OCST demonstrates:</t>
-  </si>
-  <si>
-    <t>1. Five or more predominantly obstructive respiratory events (obstructive and mixed apneas, hypopneas, or respiratory effort related arousals [RERAs]) per hour of sleep during a PSG or per hour of monitoring (OCST).</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>C. PSG or OCST demonstrates:</t>
-  </si>
-  <si>
-    <t>1. Fifteen or more predominantly obstructive respiratory events (apneas, hypopneas, or RERAs) per hour of sleep during a PSG or per hour of monitoring (OCST).</t>
   </si>
   <si>
     <t>epepwort</t>
@@ -316,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,34 +291,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -359,41 +308,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,17 +614,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="175.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="175.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -723,13 +648,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -737,13 +662,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -751,13 +676,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -765,13 +690,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -779,13 +704,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -793,13 +718,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -807,10 +732,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -821,13 +746,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -835,13 +760,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -849,10 +774,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -863,13 +788,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -877,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -891,13 +816,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -905,10 +830,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -919,10 +844,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -933,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -947,10 +872,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -961,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -975,10 +900,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -989,10 +914,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1003,10 +928,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1017,10 +942,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1031,10 +956,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1045,10 +970,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1059,10 +984,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1073,10 +998,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1087,10 +1012,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1101,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -1115,10 +1040,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1129,10 +1054,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1143,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -1157,10 +1082,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1171,10 +1096,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -1185,10 +1110,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -1199,10 +1124,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -1213,10 +1138,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -1235,61 +1160,6 @@
       </c>
       <c r="B39"/>
       <c r="C39"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="C42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="C43" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="C44" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="C45" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="C46" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="30">
-      <c r="C47" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="C48" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" ht="30">
-      <c r="C49" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/icsd3-mappings/icsd3-mros-mapping.xlsx
+++ b/icsd3-mappings/icsd3-mros-mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>2,3</t>
+  </si>
+  <si>
+    <t>poordi3</t>
+  </si>
+  <si>
+    <t>Obstructive apnea (all desaturations) hypopnea (3% desaturation) index</t>
   </si>
 </sst>
 </file>
@@ -617,7 +623,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD52"/>
+      <selection activeCell="B39" sqref="B39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1151,15 +1157,25 @@
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38"/>
-      <c r="C38"/>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39"/>
-      <c r="C39"/>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
